--- a/JavaScriptProject/Stores/Files/Database1.xlsx
+++ b/JavaScriptProject/Stores/Files/Database1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleksandr_Makogon\Documents\TestComplete 14 Projects\ProjectSuite1\JavaScriptProject\Stores\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleksandr_Makogon\Documents\TestComplete 14 Projects\TestCompleteSamples\TestCompleteSamples\JavaScriptProject\Stores\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3F990F-3905-46F4-855A-86755CC06AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C61D63D-A076-4B7B-98FD-2EBB423A1ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2205" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="2205" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1" sheetId="1" r:id="rId1"/>
-    <sheet name="Book2" sheetId="2" r:id="rId2"/>
+    <sheet name="Smoke" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,19 +40,19 @@
     <t>EnterText2</t>
   </si>
   <si>
-    <t>Hello form Excel</t>
-  </si>
-  <si>
-    <t>By from Excel</t>
-  </si>
-  <si>
-    <t>Hello form Excel 2</t>
-  </si>
-  <si>
-    <t>By from Excel 2</t>
-  </si>
-  <si>
     <t>EnterDigit1</t>
+  </si>
+  <si>
+    <t>Regression: Hello from Excel 1</t>
+  </si>
+  <si>
+    <t>Smoke: Hello form Excel</t>
+  </si>
+  <si>
+    <t>Smoke: By from Excel</t>
+  </si>
+  <si>
+    <t>Regression: By from Excel 2</t>
   </si>
 </sst>
 </file>
@@ -372,14 +372,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -395,7 +395,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CF266-C463-4962-A3D8-BABD63257B6C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,12 +446,12 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>20000000000000</v>
